--- a/#bearbeitet_FF_Energiewirtschaft - Import Excel-Datei in Datenbank.xlsx
+++ b/#bearbeitet_FF_Energiewirtschaft - Import Excel-Datei in Datenbank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="243">
   <si>
     <t>question_difficulty</t>
   </si>
@@ -771,6 +771,35 @@
   </si>
   <si>
     <t>formelfrage</t>
+  </si>
+  <si>
+    <t>Grundbegriffe - Kraft auf Ladung</t>
+  </si>
+  <si>
+    <t>01.1.01 Kraft auf Ladungen</t>
+  </si>
+  <si>
+    <t>Kraft auf Ladungen bei gegebenem Abstand berechnen</t>
+  </si>
+  <si>
+    <t>Zwei elektrische Ladungen  //q_1 /// = $v1 &amp;mu;C und  //q_2 /// = $v2 &amp;mu;C befinden sich im Abstand von  //d /// = $v3 mm. Welche Kraft  //F /// wirkt auf die Ladungen? 
+ //Hinweis: /// Geben sie eine positive Kraft für Abstoßung (OHNE "+"-Zeichen) und eine negative Kraft für Anziehung an.
+//F /// = $r1 N</t>
+  </si>
+  <si>
+    <t>($v1*10^-6)*($v2*10^-6) / (4*pi *8.854*10^-12 *1 *(($v3*10^-3))^2)</t>
+  </si>
+  <si>
+    <t>q_1 / uC</t>
+  </si>
+  <si>
+    <t>q_2 / uC</t>
+  </si>
+  <si>
+    <t>F / N</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2548,254 @@
       </c>
     </row>
     <row r="4" spans="1:190" x14ac:dyDescent="0.25">
-      <c r="F4" s="5"/>
+      <c r="A4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>10</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="DD4" s="2">
+        <v>-10000</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>2</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>3</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="2"/>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="2"/>
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4" s="2"/>
+      <c r="FG4" s="2"/>
+      <c r="FH4" s="2"/>
+      <c r="FI4" s="2"/>
+      <c r="FJ4" s="2"/>
+      <c r="FK4" s="2"/>
+      <c r="FL4" s="2"/>
+      <c r="FM4" s="2"/>
+      <c r="FN4" s="2"/>
+      <c r="FO4" s="2"/>
+      <c r="FP4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="2"/>
+      <c r="FS4" s="2"/>
+      <c r="FT4" s="2"/>
+      <c r="FU4" s="2"/>
+      <c r="FV4" s="2"/>
+      <c r="FW4" s="2"/>
+      <c r="FX4" s="2"/>
+      <c r="FY4" s="2"/>
+      <c r="FZ4" s="2"/>
+      <c r="GA4" s="2"/>
+      <c r="GB4" s="2"/>
+      <c r="GC4" s="2"/>
+      <c r="GD4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="GE4" s="2"/>
+      <c r="GF4" s="2"/>
+      <c r="GG4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="GH4" s="2"/>
     </row>
     <row r="6" spans="1:190" x14ac:dyDescent="0.25">
       <c r="F6" s="5"/>
